--- a/classification/droptc/message/neo-bert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/freeze/37622020/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1234,12 +1234,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1612,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1639,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -2935,12 +2935,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3502,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3583,12 +3583,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/freeze/37622020/prediction.xlsx
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
